--- a/src/main/webapp/ch07/kcity/라우팅.xlsx
+++ b/src/main/webapp/ch07/kcity/라우팅.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\human-05\Desktop\박해인\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Java\JavaWeb\src\main\webapp\ch07\kcity\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11445" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kcity" sheetId="1" r:id="rId1"/>
+    <sheet name="Kpop" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>Routing table</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +140,110 @@
   </si>
   <si>
     <t>/kcity/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전해줄 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(join된) list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertArtist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name, debut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kpop/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kpop/insertArtist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kpop/insertSong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title, lyrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertSong.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kpop/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kpop/updateArtist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateArtist.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>artist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artist table은 기존 Girl Group 활용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aid, name, debut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kpop/updateSong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateSong.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid, title, lyrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kpop/deleteArtirst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/kpop/deleteSong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +328,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -634,4 +745,206 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>